--- a/NformTester/NformTester/Keywordscripts/700.30.10_ExportActionHistoryforDeviceTypewithThreeTypes.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.10_ExportActionHistoryforDeviceTypewithThreeTypes.xlsx
@@ -1256,6 +1256,7 @@
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 

--- a/NformTester/NformTester/Keywordscripts/700.30.10_ExportActionHistoryforDeviceTypewithThreeTypes.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.10_ExportActionHistoryforDeviceTypewithThreeTypes.xlsx
@@ -1256,12 +1256,11 @@
     <definedName name="VerifyTxtfileValuesCol">'Form DataValDepend'!$CH:$CH</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8116" uniqueCount="896">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8134" uniqueCount="897">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -3998,6 +3997,10 @@
   <si>
     <t>C</t>
     <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>DeleteLocalFile</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4276,7 +4279,35 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF92D050"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -4581,10 +4612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O143"/>
+  <dimension ref="A1:O149"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4679,24 +4710,18 @@
         <v>2</v>
       </c>
       <c r="D3" s="11" t="s">
-        <v>841</v>
+        <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>0</v>
+        <v>896</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>817</v>
+        <v>887</v>
       </c>
       <c r="G3" s="3"/>
-      <c r="H3" s="3" t="s">
-        <v>842</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>843</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>844</v>
-      </c>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
@@ -4716,10 +4741,10 @@
         <v>832</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4</v>
+        <v>896</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>890</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4730,7 +4755,7 @@
       <c r="M4" s="3"/>
       <c r="N4" s="14"/>
     </row>
-    <row r="5" spans="1:15" ht="15">
+    <row r="5" spans="1:15">
       <c r="A5" s="2" t="s">
         <v>826</v>
       </c>
@@ -4740,11 +4765,15 @@
       <c r="C5" s="3">
         <v>4</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>881</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>892</v>
+      </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
       <c r="I5" s="3"/>
@@ -4754,7 +4783,7 @@
       <c r="M5" s="3"/>
       <c r="N5" s="14"/>
     </row>
-    <row r="6" spans="1:15" ht="15">
+    <row r="6" spans="1:15">
       <c r="A6" s="2" t="s">
         <v>827</v>
       </c>
@@ -4764,35 +4793,49 @@
       <c r="C6" s="3">
         <v>5</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>882</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="11" t="s">
+        <v>841</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>817</v>
+      </c>
       <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
+      <c r="H6" s="3" t="s">
+        <v>842</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>843</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>844</v>
+      </c>
       <c r="K6" s="3"/>
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="14"/>
     </row>
-    <row r="7" spans="1:15" ht="15">
+    <row r="7" spans="1:15">
       <c r="A7" s="2" t="s">
         <v>803</v>
       </c>
       <c r="B7" s="4">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="C7" s="3">
         <v>6</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>845</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F7" s="3">
+        <v>4</v>
+      </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
@@ -4803,7 +4846,7 @@
       <c r="N7" s="14"/>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" ht="15">
       <c r="A8" s="2" t="s">
         <v>846</v>
       </c>
@@ -4811,29 +4854,19 @@
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="11" t="s">
-        <v>831</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>620</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>626</v>
-      </c>
+      <c r="D8" s="13" t="s">
+        <v>881</v>
+      </c>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="3" t="s">
-        <v>847</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>848</v>
-      </c>
-      <c r="J8" s="3" t="s">
-        <v>849</v>
-      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
-      <c r="N8" s="24"/>
+      <c r="N8" s="14"/>
       <c r="O8" s="17"/>
     </row>
     <row r="9" spans="1:15" ht="15">
@@ -4845,21 +4878,21 @@
         <v>8</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>855</v>
-      </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="18"/>
-      <c r="M9" s="18"/>
-      <c r="N9" s="19"/>
+        <v>882</v>
+      </c>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+      <c r="I9" s="3"/>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="14"/>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" ht="15">
       <c r="A10" s="2" t="s">
         <v>804</v>
       </c>
@@ -4869,25 +4902,19 @@
       <c r="C10" s="3">
         <v>9</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>850</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="21"/>
-      <c r="I10" s="21"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="19"/>
+      <c r="D10" s="13" t="s">
+        <v>845</v>
+      </c>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="14"/>
       <c r="O10" s="17"/>
     </row>
     <row r="11" spans="1:15">
@@ -4896,28 +4923,32 @@
       <c r="C11" s="3">
         <v>10</v>
       </c>
-      <c r="D11" s="20" t="s">
-        <v>830</v>
+      <c r="D11" s="11" t="s">
+        <v>831</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G11" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="19"/>
+        <v>620</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>626</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3" t="s">
+        <v>847</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>848</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>849</v>
+      </c>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="3"/>
+      <c r="N11" s="24"/>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" ht="15">
       <c r="A12" s="2" t="s">
         <v>806</v>
       </c>
@@ -4925,20 +4956,14 @@
       <c r="C12" s="3">
         <v>11</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
+      <c r="D12" s="13" t="s">
+        <v>855</v>
+      </c>
+      <c r="E12" s="18"/>
+      <c r="F12" s="18"/>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18"/>
       <c r="J12" s="18"/>
       <c r="K12" s="18"/>
       <c r="L12" s="18"/>
@@ -4955,24 +4980,22 @@
         <v>12</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>830</v>
+        <v>850</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>352</v>
+        <v>19</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>222</v>
+        <v>22</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>851</v>
-      </c>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H13" s="21"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="18"/>
+      <c r="L13" s="18"/>
       <c r="M13" s="18"/>
       <c r="N13" s="19"/>
       <c r="O13" s="17"/>
@@ -4989,21 +5012,19 @@
         <v>830</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>852</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="3"/>
+        <v>19</v>
+      </c>
+      <c r="F14" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="21"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="18"/>
+      <c r="L14" s="18"/>
       <c r="M14" s="18"/>
       <c r="N14" s="19"/>
       <c r="O14" s="17"/>
@@ -5019,20 +5040,20 @@
       <c r="D15" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="F15" s="3" t="s">
+      <c r="E15" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F15" s="18" t="s">
         <v>212</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-      <c r="L15" s="3"/>
+      <c r="G15" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="21"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
       <c r="M15" s="18"/>
       <c r="N15" s="19"/>
       <c r="O15" s="17"/>
@@ -5049,15 +5070,17 @@
         <v>830</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>328</v>
+        <v>222</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H16" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>851</v>
+      </c>
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
@@ -5078,15 +5101,17 @@
         <v>830</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
@@ -5107,17 +5132,15 @@
         <v>830</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>403</v>
+        <v>352</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>852</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
@@ -5138,17 +5161,15 @@
         <v>830</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>221</v>
+        <v>328</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>852</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H19" s="3"/>
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
@@ -5171,17 +5192,15 @@
         <v>830</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>403</v>
+        <v>358</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>879</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H20" s="3"/>
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
@@ -5205,13 +5224,13 @@
         <v>403</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>404</v>
+        <v>222</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>853</v>
+        <v>4</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
@@ -5236,12 +5255,14 @@
         <v>403</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>17</v>
+        <v>221</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H22" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>852</v>
+      </c>
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
@@ -5256,19 +5277,21 @@
       <c r="C23" s="3">
         <v>22</v>
       </c>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="20" t="s">
         <v>830</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>352</v>
+        <v>403</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H23" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>879</v>
+      </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
@@ -5283,19 +5306,21 @@
       <c r="C24" s="3">
         <v>23</v>
       </c>
-      <c r="D24" s="11" t="s">
+      <c r="D24" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E24" s="21" t="s">
-        <v>348</v>
+      <c r="E24" s="3" t="s">
+        <v>403</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>100</v>
+        <v>404</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="3"/>
+        <v>853</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>854</v>
+      </c>
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
@@ -5304,23 +5329,29 @@
       <c r="N24" s="19"/>
       <c r="O24" s="17"/>
     </row>
-    <row r="25" spans="1:15" ht="15">
+    <row r="25" spans="1:15">
       <c r="A25" s="12"/>
       <c r="B25" s="12"/>
       <c r="C25" s="3">
         <v>24</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>856</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="21"/>
-      <c r="I25" s="21"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
+      <c r="D25" s="20" t="s">
+        <v>830</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>403</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+      <c r="L25" s="3"/>
       <c r="M25" s="18"/>
       <c r="N25" s="19"/>
     </row>
@@ -5329,37 +5360,39 @@
         <v>25</v>
       </c>
       <c r="D26" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F26" s="3">
-        <v>2</v>
-      </c>
-      <c r="G26" s="3"/>
+        <v>352</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H26" s="3"/>
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="24"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="19"/>
     </row>
     <row r="27" spans="1:15">
       <c r="C27" s="3">
         <v>26</v>
       </c>
-      <c r="D27" s="20" t="s">
+      <c r="D27" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E27" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F27" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G27" s="18" t="s">
+      <c r="E27" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G27" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H27" s="3"/>
@@ -5367,52 +5400,42 @@
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
       <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="24"/>
-    </row>
-    <row r="28" spans="1:15">
+      <c r="M27" s="18"/>
+      <c r="N27" s="19"/>
+    </row>
+    <row r="28" spans="1:15" ht="15">
       <c r="C28" s="3">
         <v>27</v>
       </c>
-      <c r="D28" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F28" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="24"/>
+      <c r="D28" s="13" t="s">
+        <v>856</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="19"/>
     </row>
     <row r="29" spans="1:15">
       <c r="C29" s="3">
         <v>28</v>
       </c>
       <c r="D29" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>857</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F29" s="3">
+        <v>2</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
@@ -5424,16 +5447,16 @@
       <c r="C30" s="3">
         <v>29</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D30" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E30" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="G30" s="3" t="s">
+      <c r="E30" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H30" s="3"/>
@@ -5448,24 +5471,20 @@
       <c r="C31" s="3">
         <v>30</v>
       </c>
-      <c r="D31" s="11" t="s">
+      <c r="D31" s="20" t="s">
         <v>830</v>
       </c>
-      <c r="E31" s="3" t="s">
-        <v>433</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H31" s="3">
-        <v>2</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>877</v>
-      </c>
+      <c r="E31" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F31" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G31" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -5479,17 +5498,17 @@
       <c r="D32" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>433</v>
+      <c r="E32" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>113</v>
+        <v>351</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>3</v>
+        <v>56</v>
       </c>
       <c r="H32" s="3" t="s">
-        <v>867</v>
+        <v>857</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="3"/>
@@ -5505,18 +5524,16 @@
       <c r="D33" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E33" s="3" t="s">
-        <v>433</v>
+      <c r="E33" s="21" t="s">
+        <v>348</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>113</v>
+        <v>350</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>868</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H33" s="3"/>
       <c r="I33" s="3"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
@@ -5535,18 +5552,22 @@
         <v>433</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H34" s="3">
+        <v>2</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>877</v>
+      </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
-      <c r="N34" s="14"/>
+      <c r="N34" s="24"/>
     </row>
     <row r="35" spans="3:15">
       <c r="C35" s="3">
@@ -5559,18 +5580,20 @@
         <v>433</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H35" s="3"/>
+        <v>3</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>867</v>
+      </c>
       <c r="I35" s="3"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
       <c r="M35" s="3"/>
-      <c r="N35" s="14"/>
+      <c r="N35" s="24"/>
     </row>
     <row r="36" spans="3:15">
       <c r="C36" s="3">
@@ -5579,37 +5602,41 @@
       <c r="D36" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E36" s="21" t="s">
-        <v>348</v>
+      <c r="E36" s="3" t="s">
+        <v>433</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H36" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>868</v>
+      </c>
       <c r="I36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
       <c r="M36" s="3"/>
-      <c r="N36" s="14"/>
+      <c r="N36" s="24"/>
     </row>
     <row r="37" spans="3:15">
       <c r="C37" s="3">
         <v>36</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E37" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F37" s="3">
-        <v>2</v>
-      </c>
-      <c r="G37" s="3"/>
+        <v>433</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>436</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H37" s="3"/>
       <c r="I37" s="3"/>
       <c r="J37" s="3"/>
@@ -5618,16 +5645,22 @@
       <c r="M37" s="3"/>
       <c r="N37" s="14"/>
     </row>
-    <row r="38" spans="3:15" ht="15">
+    <row r="38" spans="3:15">
       <c r="C38" s="3">
         <v>37</v>
       </c>
-      <c r="D38" s="13" t="s">
-        <v>863</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
-      <c r="G38" s="3"/>
+      <c r="D38" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H38" s="3"/>
       <c r="I38" s="3"/>
       <c r="J38" s="3"/>
@@ -5643,13 +5676,13 @@
       <c r="D39" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F39" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="G39" s="18" t="s">
+      <c r="E39" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G39" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H39" s="3"/>
@@ -5665,17 +5698,15 @@
         <v>39</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E40" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G40" s="18" t="s">
-        <v>2</v>
-      </c>
+        <v>832</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>799</v>
+      </c>
+      <c r="F40" s="3">
+        <v>2</v>
+      </c>
+      <c r="G40" s="3"/>
       <c r="H40" s="3"/>
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
@@ -5684,25 +5715,17 @@
       <c r="M40" s="3"/>
       <c r="N40" s="14"/>
     </row>
-    <row r="41" spans="3:15">
+    <row r="41" spans="3:15" ht="15">
       <c r="C41" s="3">
         <v>40</v>
       </c>
-      <c r="D41" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E41" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>877</v>
-      </c>
+      <c r="D41" s="13" t="s">
+        <v>863</v>
+      </c>
+      <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
       <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
@@ -5719,12 +5742,12 @@
         <v>830</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>620</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="G42" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="G42" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H42" s="3"/>
@@ -5744,12 +5767,12 @@
         <v>830</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>629</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="G43" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="G43" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H43" s="3"/>
@@ -5768,15 +5791,17 @@
         <v>830</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>629</v>
+        <v>620</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>17</v>
+        <v>621</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H44" s="3"/>
+        <v>56</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>877</v>
+      </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
       <c r="K44" s="3"/>
@@ -5795,7 +5820,7 @@
         <v>620</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>100</v>
+        <v>623</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>2</v>
@@ -5813,33 +5838,41 @@
         <v>45</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>832</v>
-      </c>
-      <c r="E46" s="21" t="s">
-        <v>799</v>
-      </c>
-      <c r="F46" s="3">
-        <v>2</v>
-      </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="21"/>
-      <c r="I46" s="21"/>
+        <v>830</v>
+      </c>
+      <c r="E46" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H46" s="3"/>
+      <c r="I46" s="3"/>
       <c r="J46" s="3"/>
       <c r="K46" s="3"/>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="14"/>
     </row>
-    <row r="47" spans="3:15" s="16" customFormat="1" ht="15">
+    <row r="47" spans="3:15" s="16" customFormat="1">
       <c r="C47" s="3">
         <v>46</v>
       </c>
-      <c r="D47" s="13" t="s">
-        <v>883</v>
-      </c>
-      <c r="E47" s="3"/>
-      <c r="F47" s="3"/>
-      <c r="G47" s="3"/>
+      <c r="D47" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E47" s="18" t="s">
+        <v>629</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="3"/>
@@ -5848,16 +5881,22 @@
       <c r="M47" s="3"/>
       <c r="N47" s="14"/>
     </row>
-    <row r="48" spans="3:15" ht="15">
+    <row r="48" spans="3:15">
       <c r="C48" s="3">
         <v>47</v>
       </c>
-      <c r="D48" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="E48" s="3"/>
-      <c r="F48" s="3"/>
-      <c r="G48" s="3"/>
+      <c r="D48" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>620</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="H48" s="3"/>
       <c r="I48" s="3"/>
       <c r="J48" s="3"/>
@@ -5871,41 +5910,33 @@
         <v>48</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H49" s="3"/>
-      <c r="I49" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E49" s="21" t="s">
+        <v>799</v>
+      </c>
+      <c r="F49" s="3">
+        <v>2</v>
+      </c>
+      <c r="G49" s="3"/>
+      <c r="H49" s="21"/>
+      <c r="I49" s="21"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="14"/>
     </row>
-    <row r="50" spans="3:14">
+    <row r="50" spans="3:14" ht="15">
       <c r="C50" s="3">
         <v>49</v>
       </c>
-      <c r="D50" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D50" s="13" t="s">
+        <v>883</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="3"/>
+      <c r="G50" s="3"/>
       <c r="H50" s="3"/>
       <c r="I50" s="3"/>
       <c r="J50" s="3"/>
@@ -5914,22 +5945,16 @@
       <c r="M50" s="3"/>
       <c r="N50" s="14"/>
     </row>
-    <row r="51" spans="3:14">
+    <row r="51" spans="3:14" ht="15">
       <c r="C51" s="3">
         <v>50</v>
       </c>
-      <c r="D51" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E51" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D51" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="3"/>
+      <c r="G51" s="3"/>
       <c r="H51" s="3"/>
       <c r="I51" s="3"/>
       <c r="J51" s="3"/>
@@ -5943,22 +5968,20 @@
         <v>51</v>
       </c>
       <c r="D52" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J52" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E52" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
       <c r="K52" s="3"/>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
@@ -5969,22 +5992,20 @@
         <v>52</v>
       </c>
       <c r="D53" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="E53" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
-      <c r="H53" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I53" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J53" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E53" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G53" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H53" s="3"/>
+      <c r="I53" s="3"/>
+      <c r="J53" s="3"/>
       <c r="K53" s="3"/>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
@@ -5997,11 +6018,11 @@
       <c r="D54" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E54" s="3" t="s">
-        <v>747</v>
+      <c r="E54" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F54" s="3" t="s">
-        <v>741</v>
+        <v>88</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>2</v>
@@ -6019,22 +6040,18 @@
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F55" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G55" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="G55" s="3"/>
       <c r="H55" s="3" t="s">
-        <v>885</v>
+        <v>859</v>
       </c>
       <c r="I55" s="3" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="J55" s="3" t="b">
         <v>0</v>
@@ -6049,20 +6066,22 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F56" s="3" t="s">
-        <v>417</v>
-      </c>
-      <c r="G56" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H56" s="3"/>
-      <c r="I56" s="3"/>
-      <c r="J56" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3" t="s">
+        <v>861</v>
+      </c>
+      <c r="I56" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J56" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
@@ -6079,20 +6098,14 @@
         <v>747</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>17</v>
+        <v>741</v>
       </c>
       <c r="G57" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H57" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="J57" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
       <c r="K57" s="3"/>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
@@ -6109,19 +6122,19 @@
         <v>747</v>
       </c>
       <c r="F58" s="3" t="s">
-        <v>417</v>
+        <v>17</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H58" s="18" t="s">
-        <v>876</v>
+      <c r="H58" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="J58" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K58" s="3"/>
       <c r="L58" s="3"/>
@@ -6139,20 +6152,14 @@
         <v>747</v>
       </c>
       <c r="F59" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G59" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H59" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J59" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
       <c r="K59" s="3"/>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
@@ -6169,14 +6176,20 @@
         <v>747</v>
       </c>
       <c r="F60" s="3" t="s">
-        <v>743</v>
+        <v>17</v>
       </c>
       <c r="G60" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H60" s="3"/>
-      <c r="I60" s="3"/>
-      <c r="J60" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H60" s="3" t="s">
+        <v>885</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="J60" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K60" s="3"/>
       <c r="L60" s="3"/>
       <c r="M60" s="3"/>
@@ -6193,14 +6206,20 @@
         <v>747</v>
       </c>
       <c r="F61" s="3" t="s">
-        <v>633</v>
+        <v>417</v>
       </c>
       <c r="G61" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H61" s="3"/>
-      <c r="I61" s="3"/>
-      <c r="J61" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H61" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="I61" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J61" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K61" s="3"/>
       <c r="L61" s="3"/>
       <c r="M61" s="3"/>
@@ -6211,18 +6230,26 @@
         <v>61</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F62" s="3">
-        <v>2</v>
-      </c>
-      <c r="G62" s="3"/>
-      <c r="H62" s="3"/>
-      <c r="I62" s="3"/>
-      <c r="J62" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G62" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="I62" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J62" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K62" s="3"/>
       <c r="L62" s="3"/>
       <c r="M62" s="3"/>
@@ -6239,14 +6266,12 @@
         <v>747</v>
       </c>
       <c r="F63" s="3" t="s">
-        <v>633</v>
+        <v>743</v>
       </c>
       <c r="G63" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H63" s="3" t="s">
-        <v>862</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H63" s="3"/>
       <c r="I63" s="3"/>
       <c r="J63" s="3"/>
       <c r="K63" s="3"/>
@@ -6259,13 +6284,13 @@
         <v>63</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>884</v>
+        <v>830</v>
       </c>
       <c r="E64" s="3" t="s">
         <v>747</v>
       </c>
       <c r="F64" s="3" t="s">
-        <v>749</v>
+        <v>633</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>2</v>
@@ -6283,20 +6308,16 @@
         <v>64</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>889</v>
+        <v>832</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F65" s="3" t="s">
-        <v>737</v>
-      </c>
-      <c r="G65" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H65" s="3" t="s">
-        <v>878</v>
-      </c>
+        <v>799</v>
+      </c>
+      <c r="F65" s="3">
+        <v>2</v>
+      </c>
+      <c r="G65" s="3"/>
+      <c r="H65" s="3"/>
       <c r="I65" s="3"/>
       <c r="J65" s="3"/>
       <c r="K65" s="3"/>
@@ -6309,19 +6330,19 @@
         <v>65</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>884</v>
+        <v>830</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>747</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>398</v>
+        <v>633</v>
       </c>
       <c r="G66" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>887</v>
+        <v>862</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="3"/>
@@ -6335,13 +6356,13 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>830</v>
+        <v>884</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>747</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>17</v>
+        <v>749</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>2</v>
@@ -6359,16 +6380,20 @@
         <v>67</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>832</v>
+        <v>889</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F68" s="3">
-        <v>2</v>
-      </c>
-      <c r="G68" s="3"/>
-      <c r="H68" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="F68" s="3" t="s">
+        <v>737</v>
+      </c>
+      <c r="G68" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H68" s="3" t="s">
+        <v>878</v>
+      </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
       <c r="K68" s="3"/>
@@ -6381,18 +6406,20 @@
         <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>830</v>
+        <v>884</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="G69" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H69" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H69" s="3" t="s">
+        <v>887</v>
+      </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
       <c r="K69" s="3"/>
@@ -6406,22 +6433,20 @@
         <v>69</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>895</v>
+        <v>830</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F70" s="3"/>
-      <c r="G70" s="3"/>
-      <c r="H70" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I70" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J70" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G70" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H70" s="3"/>
+      <c r="I70" s="3"/>
+      <c r="J70" s="3"/>
       <c r="K70" s="3"/>
       <c r="L70" s="3"/>
       <c r="M70" s="3"/>
@@ -6433,22 +6458,18 @@
         <v>70</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>895</v>
+        <v>832</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F71" s="3"/>
+        <v>799</v>
+      </c>
+      <c r="F71" s="3">
+        <v>2</v>
+      </c>
       <c r="G71" s="3"/>
-      <c r="H71" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I71" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J71" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H71" s="3"/>
+      <c r="I71" s="3"/>
+      <c r="J71" s="3"/>
       <c r="K71" s="3"/>
       <c r="L71" s="3"/>
       <c r="M71" s="3"/>
@@ -6460,22 +6481,20 @@
         <v>71</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F72" s="3"/>
-      <c r="G72" s="3"/>
-      <c r="H72" s="3" t="s">
-        <v>887</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="J72" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H72" s="3"/>
+      <c r="I72" s="3"/>
+      <c r="J72" s="3"/>
       <c r="K72" s="3"/>
       <c r="L72" s="3"/>
       <c r="M72" s="3"/>
@@ -6486,7 +6505,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>832</v>
+        <v>895</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>800</v>
@@ -6494,13 +6513,13 @@
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
       <c r="H73" s="3" t="s">
-        <v>887</v>
+        <v>859</v>
       </c>
       <c r="I73" s="3" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="J73" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K73" s="3"/>
       <c r="L73" s="3"/>
@@ -6512,7 +6531,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>832</v>
+        <v>895</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>800</v>
@@ -6520,13 +6539,13 @@
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
       <c r="H74" s="3" t="s">
-        <v>887</v>
+        <v>861</v>
       </c>
       <c r="I74" s="3" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="J74" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K74" s="3"/>
       <c r="L74" s="3"/>
@@ -6549,7 +6568,7 @@
         <v>887</v>
       </c>
       <c r="I75" s="3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J75" s="3" t="b">
         <v>1</v>
@@ -6575,7 +6594,7 @@
         <v>887</v>
       </c>
       <c r="I76" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J76" s="3" t="b">
         <v>1</v>
@@ -6601,7 +6620,7 @@
         <v>887</v>
       </c>
       <c r="I77" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="J77" s="3" t="b">
         <v>1</v>
@@ -6627,7 +6646,7 @@
         <v>887</v>
       </c>
       <c r="I78" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J78" s="3" t="b">
         <v>1</v>
@@ -6653,7 +6672,7 @@
         <v>887</v>
       </c>
       <c r="I79" s="3" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="J79" s="3" t="b">
         <v>1</v>
@@ -6663,37 +6682,53 @@
       <c r="M79" s="3"/>
       <c r="N79" s="14"/>
     </row>
-    <row r="80" spans="3:15" s="16" customFormat="1" ht="15">
+    <row r="80" spans="3:15" s="16" customFormat="1">
       <c r="C80" s="3">
         <v>79</v>
       </c>
-      <c r="D80" s="13" t="s">
-        <v>888</v>
-      </c>
-      <c r="E80" s="3"/>
+      <c r="D80" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
-      <c r="H80" s="3"/>
-      <c r="I80" s="3"/>
-      <c r="J80" s="3"/>
+      <c r="H80" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="J80" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K80" s="3"/>
       <c r="L80" s="3"/>
       <c r="M80" s="3"/>
       <c r="N80" s="14"/>
     </row>
-    <row r="81" spans="3:14" s="16" customFormat="1" ht="15">
+    <row r="81" spans="3:14" s="16" customFormat="1">
       <c r="C81" s="3">
         <v>80</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="E81" s="3"/>
+      <c r="D81" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
-      <c r="H81" s="3"/>
-      <c r="I81" s="3"/>
-      <c r="J81" s="3"/>
+      <c r="H81" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="J81" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K81" s="3"/>
       <c r="L81" s="3"/>
       <c r="M81" s="3"/>
@@ -6704,41 +6739,37 @@
         <v>81</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E82" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H82" s="3"/>
-      <c r="I82" s="3"/>
-      <c r="J82" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="3"/>
+      <c r="H82" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="I82" s="3" t="s">
+        <v>893</v>
+      </c>
+      <c r="J82" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="14"/>
     </row>
-    <row r="83" spans="3:14" s="16" customFormat="1">
+    <row r="83" spans="3:14" s="16" customFormat="1" ht="15">
       <c r="C83" s="3">
         <v>82</v>
       </c>
-      <c r="D83" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E83" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D83" s="13" t="s">
+        <v>888</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="3"/>
+      <c r="G83" s="3"/>
       <c r="H83" s="3"/>
       <c r="I83" s="3"/>
       <c r="J83" s="3"/>
@@ -6747,22 +6778,16 @@
       <c r="M83" s="3"/>
       <c r="N83" s="14"/>
     </row>
-    <row r="84" spans="3:14" s="16" customFormat="1">
+    <row r="84" spans="3:14" s="16" customFormat="1" ht="15">
       <c r="C84" s="3">
         <v>83</v>
       </c>
-      <c r="D84" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F84" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G84" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D84" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="3"/>
       <c r="H84" s="3"/>
       <c r="I84" s="3"/>
       <c r="J84" s="3"/>
@@ -6776,22 +6801,20 @@
         <v>84</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F85" s="3"/>
-      <c r="G85" s="3"/>
-      <c r="H85" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I85" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J85" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E85" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F85" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H85" s="3"/>
+      <c r="I85" s="3"/>
+      <c r="J85" s="3"/>
       <c r="K85" s="3"/>
       <c r="L85" s="3"/>
       <c r="M85" s="3"/>
@@ -6802,22 +6825,20 @@
         <v>85</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="E86" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F86" s="3"/>
-      <c r="G86" s="3"/>
-      <c r="H86" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I86" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J86" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E86" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H86" s="3"/>
+      <c r="I86" s="3"/>
+      <c r="J86" s="3"/>
       <c r="K86" s="3"/>
       <c r="L86" s="3"/>
       <c r="M86" s="3"/>
@@ -6830,24 +6851,18 @@
       <c r="D87" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E87" s="3" t="s">
-        <v>747</v>
+      <c r="E87" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F87" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H87" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="I87" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="J87" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H87" s="3"/>
+      <c r="I87" s="3"/>
+      <c r="J87" s="3"/>
       <c r="K87" s="3"/>
       <c r="L87" s="3"/>
       <c r="M87" s="3"/>
@@ -6858,20 +6873,22 @@
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F88" s="3" t="s">
-        <v>740</v>
-      </c>
-      <c r="G88" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H88" s="3"/>
-      <c r="I88" s="3"/>
-      <c r="J88" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F88" s="3"/>
+      <c r="G88" s="3"/>
+      <c r="H88" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="I88" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J88" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K88" s="3"/>
       <c r="L88" s="3"/>
       <c r="M88" s="3"/>
@@ -6882,25 +6899,21 @@
         <v>88</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F89" s="3"/>
+      <c r="G89" s="3"/>
       <c r="H89" s="3" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="I89" s="3" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="J89" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K89" s="3"/>
       <c r="L89" s="3"/>
@@ -6918,16 +6931,16 @@
         <v>747</v>
       </c>
       <c r="F90" s="3" t="s">
-        <v>417</v>
+        <v>17</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H90" s="18" t="s">
-        <v>876</v>
+      <c r="H90" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="I90" s="3" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="J90" s="3" t="b">
         <v>0</v>
@@ -6948,20 +6961,14 @@
         <v>747</v>
       </c>
       <c r="F91" s="3" t="s">
-        <v>416</v>
+        <v>740</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H91" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J91" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H91" s="3"/>
+      <c r="I91" s="3"/>
+      <c r="J91" s="3"/>
       <c r="K91" s="3"/>
       <c r="L91" s="3"/>
       <c r="M91" s="3"/>
@@ -6972,22 +6979,26 @@
         <v>91</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>884</v>
+        <v>830</v>
       </c>
       <c r="E92" s="3" t="s">
         <v>747</v>
       </c>
       <c r="F92" s="3" t="s">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="I92" s="3"/>
-      <c r="J92" s="3"/>
+        <v>885</v>
+      </c>
+      <c r="I92" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="J92" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K92" s="3"/>
       <c r="L92" s="3"/>
       <c r="M92" s="3"/>
@@ -7004,14 +7015,20 @@
         <v>747</v>
       </c>
       <c r="F93" s="3" t="s">
-        <v>17</v>
+        <v>417</v>
       </c>
       <c r="G93" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H93" s="3"/>
-      <c r="I93" s="3"/>
-      <c r="J93" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H93" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="I93" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J93" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K93" s="3"/>
       <c r="L93" s="3"/>
       <c r="M93" s="3"/>
@@ -7022,18 +7039,26 @@
         <v>93</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F94" s="3">
-        <v>2</v>
-      </c>
-      <c r="G94" s="3"/>
-      <c r="H94" s="3"/>
-      <c r="I94" s="3"/>
-      <c r="J94" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H94" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J94" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K94" s="3"/>
       <c r="L94" s="3"/>
       <c r="M94" s="3"/>
@@ -7044,18 +7069,20 @@
         <v>94</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>830</v>
+        <v>884</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F95" s="3" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="G95" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H95" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>890</v>
+      </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
@@ -7068,22 +7095,20 @@
         <v>95</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>895</v>
+        <v>830</v>
       </c>
       <c r="E96" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F96" s="3"/>
-      <c r="G96" s="3"/>
-      <c r="H96" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J96" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="F96" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G96" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H96" s="3"/>
+      <c r="I96" s="3"/>
+      <c r="J96" s="3"/>
       <c r="K96" s="3"/>
       <c r="L96" s="3"/>
       <c r="M96" s="3"/>
@@ -7094,22 +7119,18 @@
         <v>96</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>895</v>
+        <v>832</v>
       </c>
       <c r="E97" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F97" s="3"/>
+        <v>799</v>
+      </c>
+      <c r="F97" s="3">
+        <v>2</v>
+      </c>
       <c r="G97" s="3"/>
-      <c r="H97" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J97" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H97" s="3"/>
+      <c r="I97" s="3"/>
+      <c r="J97" s="3"/>
       <c r="K97" s="3"/>
       <c r="L97" s="3"/>
       <c r="M97" s="3"/>
@@ -7120,22 +7141,20 @@
         <v>97</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E98" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F98" s="3"/>
-      <c r="G98" s="3"/>
-      <c r="H98" s="3" t="s">
-        <v>890</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="J98" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="J98" s="3"/>
       <c r="K98" s="3"/>
       <c r="L98" s="3"/>
       <c r="M98" s="3"/>
@@ -7146,7 +7165,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>832</v>
+        <v>895</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>800</v>
@@ -7154,13 +7173,13 @@
       <c r="F99" s="3"/>
       <c r="G99" s="3"/>
       <c r="H99" s="3" t="s">
-        <v>890</v>
+        <v>859</v>
       </c>
       <c r="I99" s="3" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="J99" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K99" s="3"/>
       <c r="L99" s="3"/>
@@ -7172,7 +7191,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>832</v>
+        <v>895</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>800</v>
@@ -7180,13 +7199,13 @@
       <c r="F100" s="3"/>
       <c r="G100" s="3"/>
       <c r="H100" s="3" t="s">
-        <v>890</v>
+        <v>861</v>
       </c>
       <c r="I100" s="3" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="J100" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K100" s="3"/>
       <c r="L100" s="3"/>
@@ -7209,7 +7228,7 @@
         <v>890</v>
       </c>
       <c r="I101" s="3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J101" s="3" t="b">
         <v>1</v>
@@ -7235,7 +7254,7 @@
         <v>890</v>
       </c>
       <c r="I102" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J102" s="3" t="b">
         <v>1</v>
@@ -7261,7 +7280,7 @@
         <v>890</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="J103" s="3" t="b">
         <v>1</v>
@@ -7287,7 +7306,7 @@
         <v>890</v>
       </c>
       <c r="I104" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J104" s="3" t="b">
         <v>1</v>
@@ -7313,7 +7332,7 @@
         <v>890</v>
       </c>
       <c r="I105" s="3" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="J105" s="3" t="b">
         <v>1</v>
@@ -7323,37 +7342,53 @@
       <c r="M105" s="3"/>
       <c r="N105" s="14"/>
     </row>
-    <row r="106" spans="3:14" s="16" customFormat="1" ht="15">
+    <row r="106" spans="3:14" s="16" customFormat="1">
       <c r="C106" s="3">
         <v>105</v>
       </c>
-      <c r="D106" s="13" t="s">
-        <v>891</v>
-      </c>
-      <c r="E106" s="3"/>
+      <c r="D106" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="3"/>
-      <c r="J106" s="3"/>
+      <c r="H106" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="I106" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="J106" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K106" s="3"/>
       <c r="L106" s="3"/>
       <c r="M106" s="3"/>
       <c r="N106" s="14"/>
     </row>
-    <row r="107" spans="3:14" s="16" customFormat="1" ht="15">
+    <row r="107" spans="3:14" s="16" customFormat="1">
       <c r="C107" s="3">
         <v>106</v>
       </c>
-      <c r="D107" s="13" t="s">
-        <v>858</v>
-      </c>
-      <c r="E107" s="3"/>
+      <c r="D107" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E107" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="3"/>
-      <c r="J107" s="3"/>
+      <c r="H107" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="I107" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="J107" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K107" s="3"/>
       <c r="L107" s="3"/>
       <c r="M107" s="3"/>
@@ -7364,41 +7399,37 @@
         <v>107</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E108" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H108" s="3"/>
-      <c r="I108" s="3"/>
-      <c r="J108" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F108" s="3"/>
+      <c r="G108" s="3"/>
+      <c r="H108" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="I108" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="J108" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K108" s="3"/>
       <c r="L108" s="3"/>
       <c r="M108" s="3"/>
       <c r="N108" s="14"/>
     </row>
-    <row r="109" spans="3:14" s="16" customFormat="1">
+    <row r="109" spans="3:14" s="16" customFormat="1" ht="15">
       <c r="C109" s="3">
         <v>108</v>
       </c>
-      <c r="D109" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E109" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D109" s="13" t="s">
+        <v>891</v>
+      </c>
+      <c r="E109" s="3"/>
+      <c r="F109" s="3"/>
+      <c r="G109" s="3"/>
       <c r="H109" s="3"/>
       <c r="I109" s="3"/>
       <c r="J109" s="3"/>
@@ -7407,22 +7438,16 @@
       <c r="M109" s="3"/>
       <c r="N109" s="14"/>
     </row>
-    <row r="110" spans="3:14" s="16" customFormat="1">
+    <row r="110" spans="3:14" s="16" customFormat="1" ht="15">
       <c r="C110" s="3">
         <v>109</v>
       </c>
-      <c r="D110" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E110" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>2</v>
-      </c>
+      <c r="D110" s="13" t="s">
+        <v>858</v>
+      </c>
+      <c r="E110" s="3"/>
+      <c r="F110" s="3"/>
+      <c r="G110" s="3"/>
       <c r="H110" s="3"/>
       <c r="I110" s="3"/>
       <c r="J110" s="3"/>
@@ -7436,22 +7461,20 @@
         <v>110</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F111" s="3"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J111" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E111" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G111" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H111" s="3"/>
+      <c r="I111" s="3"/>
+      <c r="J111" s="3"/>
       <c r="K111" s="3"/>
       <c r="L111" s="3"/>
       <c r="M111" s="3"/>
@@ -7462,22 +7485,20 @@
         <v>111</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>895</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F112" s="3"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J112" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>830</v>
+      </c>
+      <c r="E112" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="G112" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="J112" s="3"/>
       <c r="K112" s="3"/>
       <c r="L112" s="3"/>
       <c r="M112" s="3"/>
@@ -7490,24 +7511,18 @@
       <c r="D113" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>747</v>
+      <c r="E113" s="18" t="s">
+        <v>19</v>
       </c>
       <c r="F113" s="3" t="s">
-        <v>17</v>
+        <v>88</v>
       </c>
       <c r="G113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>885</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>886</v>
-      </c>
-      <c r="J113" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H113" s="3"/>
+      <c r="I113" s="3"/>
+      <c r="J113" s="3"/>
       <c r="K113" s="3"/>
       <c r="L113" s="3"/>
       <c r="M113" s="3"/>
@@ -7518,20 +7533,22 @@
         <v>113</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>739</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H114" s="3"/>
-      <c r="I114" s="3"/>
-      <c r="J114" s="3"/>
+        <v>800</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="3"/>
+      <c r="H114" s="3" t="s">
+        <v>859</v>
+      </c>
+      <c r="I114" s="3" t="s">
+        <v>860</v>
+      </c>
+      <c r="J114" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K114" s="3"/>
       <c r="L114" s="3"/>
       <c r="M114" s="3"/>
@@ -7542,25 +7559,21 @@
         <v>114</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>830</v>
+        <v>895</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>747</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>7</v>
-      </c>
+        <v>800</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="3"/>
       <c r="H115" s="3" t="s">
-        <v>885</v>
+        <v>861</v>
       </c>
       <c r="I115" s="3" t="s">
-        <v>886</v>
+        <v>860</v>
       </c>
       <c r="J115" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K115" s="3"/>
       <c r="L115" s="3"/>
@@ -7578,16 +7591,16 @@
         <v>747</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>417</v>
+        <v>17</v>
       </c>
       <c r="G116" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H116" s="18" t="s">
-        <v>876</v>
+      <c r="H116" s="3" t="s">
+        <v>885</v>
       </c>
       <c r="I116" s="3" t="s">
-        <v>875</v>
+        <v>886</v>
       </c>
       <c r="J116" s="3" t="b">
         <v>0</v>
@@ -7608,20 +7621,14 @@
         <v>747</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>416</v>
+        <v>739</v>
       </c>
       <c r="G117" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H117" s="18" t="s">
-        <v>876</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>875</v>
-      </c>
-      <c r="J117" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H117" s="3"/>
+      <c r="I117" s="3"/>
+      <c r="J117" s="3"/>
       <c r="K117" s="3"/>
       <c r="L117" s="3"/>
       <c r="M117" s="3"/>
@@ -7632,22 +7639,26 @@
         <v>117</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>884</v>
+        <v>830</v>
       </c>
       <c r="E118" s="3" t="s">
         <v>747</v>
       </c>
       <c r="F118" s="3" t="s">
-        <v>398</v>
+        <v>17</v>
       </c>
       <c r="G118" s="3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="I118" s="3"/>
-      <c r="J118" s="3"/>
+        <v>885</v>
+      </c>
+      <c r="I118" s="3" t="s">
+        <v>886</v>
+      </c>
+      <c r="J118" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K118" s="3"/>
       <c r="L118" s="3"/>
       <c r="M118" s="3"/>
@@ -7664,14 +7675,20 @@
         <v>747</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>17</v>
+        <v>417</v>
       </c>
       <c r="G119" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H119" s="3"/>
-      <c r="I119" s="3"/>
-      <c r="J119" s="3"/>
+        <v>7</v>
+      </c>
+      <c r="H119" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="I119" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J119" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K119" s="3"/>
       <c r="L119" s="3"/>
       <c r="M119" s="3"/>
@@ -7682,18 +7699,26 @@
         <v>119</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>799</v>
-      </c>
-      <c r="F120" s="3">
-        <v>2</v>
-      </c>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="3"/>
-      <c r="J120" s="3"/>
+        <v>747</v>
+      </c>
+      <c r="F120" s="3" t="s">
+        <v>416</v>
+      </c>
+      <c r="G120" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H120" s="18" t="s">
+        <v>876</v>
+      </c>
+      <c r="I120" s="3" t="s">
+        <v>875</v>
+      </c>
+      <c r="J120" s="3" t="b">
+        <v>0</v>
+      </c>
       <c r="K120" s="3"/>
       <c r="L120" s="3"/>
       <c r="M120" s="3"/>
@@ -7704,18 +7729,20 @@
         <v>120</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>830</v>
+        <v>884</v>
       </c>
       <c r="E121" s="3" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F121" s="3" t="s">
-        <v>17</v>
+        <v>398</v>
       </c>
       <c r="G121" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H121" s="3"/>
+        <v>4</v>
+      </c>
+      <c r="H121" s="3" t="s">
+        <v>892</v>
+      </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
       <c r="K121" s="3"/>
@@ -7728,22 +7755,20 @@
         <v>121</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>895</v>
+        <v>830</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F122" s="3"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="I122" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J122" s="3" t="b">
-        <v>0</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G122" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H122" s="3"/>
+      <c r="I122" s="3"/>
+      <c r="J122" s="3"/>
       <c r="K122" s="3"/>
       <c r="L122" s="3"/>
       <c r="M122" s="3"/>
@@ -7754,22 +7779,18 @@
         <v>122</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>895</v>
+        <v>832</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F123" s="3"/>
+        <v>799</v>
+      </c>
+      <c r="F123" s="3">
+        <v>2</v>
+      </c>
       <c r="G123" s="3"/>
-      <c r="H123" s="3" t="s">
-        <v>861</v>
-      </c>
-      <c r="I123" s="3" t="s">
-        <v>860</v>
-      </c>
-      <c r="J123" s="3" t="b">
-        <v>0</v>
-      </c>
+      <c r="H123" s="3"/>
+      <c r="I123" s="3"/>
+      <c r="J123" s="3"/>
       <c r="K123" s="3"/>
       <c r="L123" s="3"/>
       <c r="M123" s="3"/>
@@ -7780,22 +7801,20 @@
         <v>123</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>800</v>
-      </c>
-      <c r="F124" s="3"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3" t="s">
-        <v>892</v>
-      </c>
-      <c r="I124" s="3" t="s">
-        <v>873</v>
-      </c>
-      <c r="J124" s="3" t="b">
-        <v>1</v>
-      </c>
+        <v>750</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G124" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H124" s="3"/>
+      <c r="I124" s="3"/>
+      <c r="J124" s="3"/>
       <c r="K124" s="3"/>
       <c r="L124" s="3"/>
       <c r="M124" s="3"/>
@@ -7806,7 +7825,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>832</v>
+        <v>895</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>800</v>
@@ -7814,13 +7833,13 @@
       <c r="F125" s="3"/>
       <c r="G125" s="3"/>
       <c r="H125" s="3" t="s">
-        <v>892</v>
+        <v>859</v>
       </c>
       <c r="I125" s="3" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="J125" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125" s="3"/>
       <c r="L125" s="3"/>
@@ -7832,7 +7851,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>832</v>
+        <v>895</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>800</v>
@@ -7840,13 +7859,13 @@
       <c r="F126" s="3"/>
       <c r="G126" s="3"/>
       <c r="H126" s="3" t="s">
-        <v>892</v>
+        <v>861</v>
       </c>
       <c r="I126" s="3" t="s">
-        <v>870</v>
+        <v>860</v>
       </c>
       <c r="J126" s="3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126" s="3"/>
       <c r="L126" s="3"/>
@@ -7869,7 +7888,7 @@
         <v>892</v>
       </c>
       <c r="I127" s="3" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J127" s="3" t="b">
         <v>1</v>
@@ -7895,7 +7914,7 @@
         <v>892</v>
       </c>
       <c r="I128" s="3" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="J128" s="3" t="b">
         <v>1</v>
@@ -7921,7 +7940,7 @@
         <v>892</v>
       </c>
       <c r="I129" s="3" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="J129" s="3" t="b">
         <v>1</v>
@@ -7947,7 +7966,7 @@
         <v>892</v>
       </c>
       <c r="I130" s="3" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="J130" s="3" t="b">
         <v>1</v>
@@ -7973,7 +7992,7 @@
         <v>892</v>
       </c>
       <c r="I131" s="3" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="J131" s="3" t="b">
         <v>1</v>
@@ -7983,19 +8002,27 @@
       <c r="M131" s="3"/>
       <c r="N131" s="14"/>
     </row>
-    <row r="132" spans="3:14" ht="15">
+    <row r="132" spans="3:14">
       <c r="C132" s="3">
         <v>131</v>
       </c>
-      <c r="D132" s="13" t="s">
-        <v>864</v>
-      </c>
-      <c r="E132" s="3"/>
+      <c r="D132" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>800</v>
+      </c>
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="3"/>
-      <c r="J132" s="3"/>
+      <c r="H132" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>873</v>
+      </c>
+      <c r="J132" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K132" s="3"/>
       <c r="L132" s="3"/>
       <c r="M132" s="3"/>
@@ -8006,20 +8033,22 @@
         <v>132</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E133" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G133" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H133" s="21"/>
-      <c r="I133" s="21"/>
-      <c r="J133" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F133" s="3"/>
+      <c r="G133" s="3"/>
+      <c r="H133" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I133" s="3" t="s">
+        <v>874</v>
+      </c>
+      <c r="J133" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K133" s="3"/>
       <c r="L133" s="3"/>
       <c r="M133" s="3"/>
@@ -8030,44 +8059,38 @@
         <v>133</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="E134" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="F134" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="G134" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H134" s="21"/>
-      <c r="I134" s="21"/>
-      <c r="J134" s="3"/>
+        <v>832</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>800</v>
+      </c>
+      <c r="F134" s="3"/>
+      <c r="G134" s="3"/>
+      <c r="H134" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="I134" s="3" t="s">
+        <v>894</v>
+      </c>
+      <c r="J134" s="3" t="b">
+        <v>1</v>
+      </c>
       <c r="K134" s="3"/>
       <c r="L134" s="3"/>
       <c r="M134" s="3"/>
       <c r="N134" s="14"/>
     </row>
-    <row r="135" spans="3:14">
+    <row r="135" spans="3:14" ht="15">
       <c r="C135" s="3">
         <v>134</v>
       </c>
-      <c r="D135" s="11" t="s">
-        <v>865</v>
-      </c>
-      <c r="E135" s="21" t="s">
-        <v>866</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>621</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H135" s="3" t="s">
-        <v>833</v>
-      </c>
+      <c r="D135" s="13" t="s">
+        <v>864</v>
+      </c>
+      <c r="E135" s="3"/>
+      <c r="F135" s="3"/>
+      <c r="G135" s="3"/>
+      <c r="H135" s="3"/>
       <c r="I135" s="3"/>
       <c r="J135" s="3"/>
       <c r="K135" s="3"/>
@@ -8075,24 +8098,24 @@
       <c r="M135" s="3"/>
       <c r="N135" s="14"/>
     </row>
-    <row r="136" spans="3:14" ht="14.25">
+    <row r="136" spans="3:14">
       <c r="C136" s="3">
         <v>135</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>865</v>
+        <v>830</v>
       </c>
       <c r="E136" s="21" t="s">
-        <v>866</v>
+        <v>19</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G136" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H136" s="15"/>
-      <c r="I136" s="3"/>
+      <c r="H136" s="21"/>
+      <c r="I136" s="21"/>
       <c r="J136" s="3"/>
       <c r="K136" s="3"/>
       <c r="L136" s="3"/>
@@ -8106,17 +8129,17 @@
       <c r="D137" s="11" t="s">
         <v>865</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>628</v>
+      <c r="E137" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="F137" s="3" t="s">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="G137" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H137" s="21"/>
-      <c r="I137" s="3"/>
+      <c r="I137" s="21"/>
       <c r="J137" s="3"/>
       <c r="K137" s="3"/>
       <c r="L137" s="3"/>
@@ -8134,36 +8157,38 @@
         <v>866</v>
       </c>
       <c r="F138" s="3" t="s">
-        <v>100</v>
+        <v>621</v>
       </c>
       <c r="G138" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H138" s="21"/>
-      <c r="I138" s="21"/>
+        <v>3</v>
+      </c>
+      <c r="H138" s="3" t="s">
+        <v>833</v>
+      </c>
+      <c r="I138" s="3"/>
       <c r="J138" s="3"/>
       <c r="K138" s="3"/>
       <c r="L138" s="3"/>
       <c r="M138" s="3"/>
       <c r="N138" s="14"/>
     </row>
-    <row r="139" spans="3:14">
+    <row r="139" spans="3:14" ht="14.25">
       <c r="C139" s="3">
         <v>138</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>830</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>19</v>
+        <v>865</v>
+      </c>
+      <c r="E139" s="21" t="s">
+        <v>866</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>22</v>
+        <v>213</v>
       </c>
       <c r="G139" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H139" s="3"/>
+      <c r="H139" s="15"/>
       <c r="I139" s="3"/>
       <c r="J139" s="3"/>
       <c r="K139" s="3"/>
@@ -8176,18 +8201,18 @@
         <v>139</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>830</v>
+        <v>865</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F140" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="G140" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="H140" s="3"/>
+        <v>628</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="G140" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H140" s="21"/>
       <c r="I140" s="3"/>
       <c r="J140" s="3"/>
       <c r="K140" s="3"/>
@@ -8200,21 +8225,19 @@
         <v>140</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>830</v>
+        <v>865</v>
       </c>
       <c r="E141" s="21" t="s">
-        <v>348</v>
+        <v>866</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>351</v>
+        <v>100</v>
       </c>
       <c r="G141" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="H141" s="3" t="s">
-        <v>857</v>
-      </c>
-      <c r="I141" s="3"/>
+        <v>2</v>
+      </c>
+      <c r="H141" s="21"/>
+      <c r="I141" s="21"/>
       <c r="J141" s="3"/>
       <c r="K141" s="3"/>
       <c r="L141" s="3"/>
@@ -8228,11 +8251,11 @@
       <c r="D142" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E142" s="21" t="s">
-        <v>348</v>
+      <c r="E142" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>213</v>
+        <v>22</v>
       </c>
       <c r="G142" s="3" t="s">
         <v>2</v>
@@ -8252,13 +8275,13 @@
       <c r="D143" s="11" t="s">
         <v>830</v>
       </c>
-      <c r="E143" s="21" t="s">
-        <v>348</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="G143" s="3" t="s">
+      <c r="E143" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="G143" s="18" t="s">
         <v>2</v>
       </c>
       <c r="H143" s="3"/>
@@ -8269,28 +8292,176 @@
       <c r="M143" s="3"/>
       <c r="N143" s="14"/>
     </row>
+    <row r="144" spans="3:14">
+      <c r="C144" s="3">
+        <v>143</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E144" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G144" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H144" s="3" t="s">
+        <v>857</v>
+      </c>
+      <c r="I144" s="3"/>
+      <c r="J144" s="3"/>
+      <c r="K144" s="3"/>
+      <c r="L144" s="3"/>
+      <c r="M144" s="3"/>
+      <c r="N144" s="14"/>
+    </row>
+    <row r="145" spans="3:14">
+      <c r="C145" s="3">
+        <v>144</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E145" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="G145" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H145" s="3"/>
+      <c r="I145" s="3"/>
+      <c r="J145" s="3"/>
+      <c r="K145" s="3"/>
+      <c r="L145" s="3"/>
+      <c r="M145" s="3"/>
+      <c r="N145" s="14"/>
+    </row>
+    <row r="146" spans="3:14">
+      <c r="C146" s="3">
+        <v>145</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>830</v>
+      </c>
+      <c r="E146" s="21" t="s">
+        <v>348</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G146" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H146" s="3"/>
+      <c r="I146" s="3"/>
+      <c r="J146" s="3"/>
+      <c r="K146" s="3"/>
+      <c r="L146" s="3"/>
+      <c r="M146" s="3"/>
+      <c r="N146" s="14"/>
+    </row>
+    <row r="147" spans="3:14">
+      <c r="C147" s="3">
+        <v>146</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>887</v>
+      </c>
+      <c r="G147" s="3"/>
+      <c r="H147" s="3"/>
+      <c r="I147" s="3"/>
+      <c r="J147" s="3"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="14"/>
+    </row>
+    <row r="148" spans="3:14">
+      <c r="C148" s="3">
+        <v>147</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E148" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>890</v>
+      </c>
+      <c r="G148" s="3"/>
+      <c r="H148" s="3"/>
+      <c r="I148" s="3"/>
+      <c r="J148" s="3"/>
+      <c r="K148" s="3"/>
+      <c r="L148" s="3"/>
+      <c r="M148" s="3"/>
+      <c r="N148" s="14"/>
+    </row>
+    <row r="149" spans="3:14">
+      <c r="C149" s="3">
+        <v>148</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>832</v>
+      </c>
+      <c r="E149" s="3" t="s">
+        <v>896</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>892</v>
+      </c>
+      <c r="G149" s="3"/>
+      <c r="H149" s="3"/>
+      <c r="I149" s="3"/>
+      <c r="J149" s="3"/>
+      <c r="K149" s="3"/>
+      <c r="L149" s="3"/>
+      <c r="M149" s="3"/>
+      <c r="N149" s="14"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
-  <conditionalFormatting sqref="N2:N143">
-    <cfRule type="cellIs" dxfId="1" priority="25" stopIfTrue="1" operator="equal">
+  <conditionalFormatting sqref="N2:N146">
+    <cfRule type="cellIs" dxfId="5" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="26" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="28" stopIfTrue="1" operator="equal">
+      <formula>"Pass"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N147:N149">
+    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+      <formula>"Fail"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G136:G143 G2:G134">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G139:G149 G2:G137">
       <formula1>INDIRECT(SUBSTITUTE(E2&amp;F2," ",""))</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D133 D139:D143 D3:D4 D26:D37 D10:D24 D39:D46 D49:D79 D82:D105 D108:D131">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D136 D142:D149 D29:D40 D13:D27 D42:D49 D52:D82 D85:D108 D111:D134 D3:D7">
       <formula1>"C,F,T,;"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2 F6:F146">
+      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E149">
       <formula1>Forms</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F143">
-      <formula1>OFFSET(INDIRECT($E2),0,0,COUNTA(INDIRECT(E2&amp;"Col")),1)</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/NformTester/NformTester/Keywordscripts/700.30.10_ExportActionHistoryforDeviceTypewithThreeTypes.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.10_ExportActionHistoryforDeviceTypewithThreeTypes.xlsx
@@ -3923,10 +3923,6 @@
     <t>Enabled</t>
   </si>
   <si>
-    <t>$SNMP_SearchStart_0$</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>;</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -4001,6 +3997,10 @@
   <si>
     <t>DeleteLocalFile</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -4074,6 +4074,7 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -4279,21 +4280,7 @@
     <cellStyle name="常规 2 2" xfId="3"/>
     <cellStyle name="超链接" xfId="2" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <fill>
         <patternFill>
@@ -4614,8 +4601,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4704,7 +4691,7 @@
         <v>822</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -4713,10 +4700,10 @@
         <v>832</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
@@ -4741,10 +4728,10 @@
         <v>832</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
@@ -4769,10 +4756,10 @@
         <v>832</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
@@ -4855,7 +4842,7 @@
         <v>7</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -4878,7 +4865,7 @@
         <v>8</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -5290,7 +5277,7 @@
         <v>4</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
@@ -5561,7 +5548,7 @@
         <v>2</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
@@ -5800,7 +5787,7 @@
         <v>56</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>877</v>
+        <v>896</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="3"/>
@@ -5932,7 +5919,7 @@
         <v>49</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="E50" s="3"/>
       <c r="F50" s="3"/>
@@ -6040,7 +6027,7 @@
         <v>54</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>800</v>
@@ -6066,7 +6053,7 @@
         <v>55</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>800</v>
@@ -6128,10 +6115,10 @@
         <v>7</v>
       </c>
       <c r="H58" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I58" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="J58" s="3" t="b">
         <v>0</v>
@@ -6182,10 +6169,10 @@
         <v>7</v>
       </c>
       <c r="H60" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I60" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="J60" s="3" t="b">
         <v>1</v>
@@ -6356,7 +6343,7 @@
         <v>66</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E67" s="3" t="s">
         <v>747</v>
@@ -6380,7 +6367,7 @@
         <v>67</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="E68" s="3" t="s">
         <v>747</v>
@@ -6392,7 +6379,7 @@
         <v>13</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="3"/>
@@ -6406,7 +6393,7 @@
         <v>68</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>747</v>
@@ -6418,7 +6405,7 @@
         <v>4</v>
       </c>
       <c r="H69" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="3"/>
@@ -6505,7 +6492,7 @@
         <v>72</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E73" s="3" t="s">
         <v>800</v>
@@ -6531,7 +6518,7 @@
         <v>73</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E74" s="3" t="s">
         <v>800</v>
@@ -6565,7 +6552,7 @@
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
       <c r="H75" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I75" s="3" t="s">
         <v>873</v>
@@ -6591,7 +6578,7 @@
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
       <c r="H76" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>869</v>
@@ -6617,7 +6604,7 @@
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
       <c r="H77" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I77" s="3" t="s">
         <v>870</v>
@@ -6643,7 +6630,7 @@
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
       <c r="H78" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I78" s="3" t="s">
         <v>871</v>
@@ -6669,7 +6656,7 @@
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
       <c r="H79" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I79" s="3" t="s">
         <v>872</v>
@@ -6695,7 +6682,7 @@
       <c r="F80" s="3"/>
       <c r="G80" s="3"/>
       <c r="H80" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I80" s="3" t="s">
         <v>873</v>
@@ -6721,7 +6708,7 @@
       <c r="F81" s="3"/>
       <c r="G81" s="3"/>
       <c r="H81" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>874</v>
@@ -6747,10 +6734,10 @@
       <c r="F82" s="3"/>
       <c r="G82" s="3"/>
       <c r="H82" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="I82" s="3" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="J82" s="3" t="b">
         <v>1</v>
@@ -6765,7 +6752,7 @@
         <v>82</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E83" s="3"/>
       <c r="F83" s="3"/>
@@ -6873,7 +6860,7 @@
         <v>87</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E88" s="3" t="s">
         <v>800</v>
@@ -6899,7 +6886,7 @@
         <v>88</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E89" s="3" t="s">
         <v>800</v>
@@ -6937,10 +6924,10 @@
         <v>7</v>
       </c>
       <c r="H90" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I90" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="I90" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="J90" s="3" t="b">
         <v>0</v>
@@ -6991,10 +6978,10 @@
         <v>7</v>
       </c>
       <c r="H92" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I92" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="I92" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="J92" s="3" t="b">
         <v>1</v>
@@ -7069,7 +7056,7 @@
         <v>94</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E95" s="3" t="s">
         <v>747</v>
@@ -7081,7 +7068,7 @@
         <v>4</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
@@ -7165,7 +7152,7 @@
         <v>98</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E99" s="3" t="s">
         <v>800</v>
@@ -7191,7 +7178,7 @@
         <v>99</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E100" s="3" t="s">
         <v>800</v>
@@ -7225,7 +7212,7 @@
       <c r="F101" s="3"/>
       <c r="G101" s="3"/>
       <c r="H101" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I101" s="3" t="s">
         <v>873</v>
@@ -7251,7 +7238,7 @@
       <c r="F102" s="3"/>
       <c r="G102" s="3"/>
       <c r="H102" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I102" s="3" t="s">
         <v>869</v>
@@ -7277,7 +7264,7 @@
       <c r="F103" s="3"/>
       <c r="G103" s="3"/>
       <c r="H103" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I103" s="3" t="s">
         <v>870</v>
@@ -7303,7 +7290,7 @@
       <c r="F104" s="3"/>
       <c r="G104" s="3"/>
       <c r="H104" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I104" s="3" t="s">
         <v>871</v>
@@ -7329,7 +7316,7 @@
       <c r="F105" s="3"/>
       <c r="G105" s="3"/>
       <c r="H105" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I105" s="3" t="s">
         <v>872</v>
@@ -7355,7 +7342,7 @@
       <c r="F106" s="3"/>
       <c r="G106" s="3"/>
       <c r="H106" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I106" s="3" t="s">
         <v>873</v>
@@ -7381,7 +7368,7 @@
       <c r="F107" s="3"/>
       <c r="G107" s="3"/>
       <c r="H107" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I107" s="3" t="s">
         <v>874</v>
@@ -7407,10 +7394,10 @@
       <c r="F108" s="3"/>
       <c r="G108" s="3"/>
       <c r="H108" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="I108" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J108" s="3" t="b">
         <v>1</v>
@@ -7425,7 +7412,7 @@
         <v>108</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
       <c r="E109" s="3"/>
       <c r="F109" s="3"/>
@@ -7533,7 +7520,7 @@
         <v>113</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E114" s="3" t="s">
         <v>800</v>
@@ -7559,7 +7546,7 @@
         <v>114</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E115" s="3" t="s">
         <v>800</v>
@@ -7597,10 +7584,10 @@
         <v>7</v>
       </c>
       <c r="H116" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I116" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="J116" s="3" t="b">
         <v>0</v>
@@ -7651,10 +7638,10 @@
         <v>7</v>
       </c>
       <c r="H118" s="3" t="s">
+        <v>884</v>
+      </c>
+      <c r="I118" s="3" t="s">
         <v>885</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>886</v>
       </c>
       <c r="J118" s="3" t="b">
         <v>1</v>
@@ -7729,7 +7716,7 @@
         <v>120</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>747</v>
@@ -7741,7 +7728,7 @@
         <v>4</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I121" s="3"/>
       <c r="J121" s="3"/>
@@ -7825,7 +7812,7 @@
         <v>124</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E125" s="3" t="s">
         <v>800</v>
@@ -7851,7 +7838,7 @@
         <v>125</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="E126" s="3" t="s">
         <v>800</v>
@@ -7885,7 +7872,7 @@
       <c r="F127" s="3"/>
       <c r="G127" s="3"/>
       <c r="H127" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I127" s="3" t="s">
         <v>873</v>
@@ -7911,7 +7898,7 @@
       <c r="F128" s="3"/>
       <c r="G128" s="3"/>
       <c r="H128" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I128" s="3" t="s">
         <v>869</v>
@@ -7937,7 +7924,7 @@
       <c r="F129" s="3"/>
       <c r="G129" s="3"/>
       <c r="H129" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I129" s="3" t="s">
         <v>870</v>
@@ -7963,7 +7950,7 @@
       <c r="F130" s="3"/>
       <c r="G130" s="3"/>
       <c r="H130" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I130" s="3" t="s">
         <v>871</v>
@@ -7989,7 +7976,7 @@
       <c r="F131" s="3"/>
       <c r="G131" s="3"/>
       <c r="H131" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I131" s="3" t="s">
         <v>872</v>
@@ -8015,7 +8002,7 @@
       <c r="F132" s="3"/>
       <c r="G132" s="3"/>
       <c r="H132" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I132" s="3" t="s">
         <v>873</v>
@@ -8041,7 +8028,7 @@
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
       <c r="H133" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I133" s="3" t="s">
         <v>874</v>
@@ -8067,10 +8054,10 @@
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
       <c r="H134" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="I134" s="3" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="J134" s="3" t="b">
         <v>1</v>
@@ -8374,10 +8361,10 @@
         <v>832</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="G147" s="3"/>
       <c r="H147" s="3"/>
@@ -8396,10 +8383,10 @@
         <v>832</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="G148" s="3"/>
       <c r="H148" s="3"/>
@@ -8418,10 +8405,10 @@
         <v>832</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="G149" s="3"/>
       <c r="H149" s="3"/>
@@ -8435,18 +8422,18 @@
   </sheetData>
   <phoneticPr fontId="9" type="noConversion"/>
   <conditionalFormatting sqref="N2:N146">
-    <cfRule type="cellIs" dxfId="5" priority="27" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="27" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="28" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N147:N149">
-    <cfRule type="cellIs" dxfId="3" priority="1" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Fail"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" stopIfTrue="1" operator="equal">
       <formula>"Pass"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/NformTester/NformTester/Keywordscripts/700.30.10_ExportActionHistoryforDeviceTypewithThreeTypes.xlsx
+++ b/NformTester/NformTester/Keywordscripts/700.30.10_ExportActionHistoryforDeviceTypewithThreeTypes.xlsx
@@ -1260,7 +1260,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8134" uniqueCount="897">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8134" uniqueCount="898">
   <si>
     <t>FormLogin_to_LiebertR_Nform</t>
   </si>
@@ -4000,6 +4000,10 @@
   </si>
   <si>
     <t>$NAME_SearchStart_0$</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>FormMap_Actions</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -4601,8 +4605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D109" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5640,7 +5644,7 @@
         <v>830</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>433</v>
+        <v>897</v>
       </c>
       <c r="F38" s="3" t="s">
         <v>100</v>
